--- a/data/hemlock_light_likelihood.xlsx
+++ b/data/hemlock_light_likelihood.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2140" yWindow="0" windowWidth="29760" windowHeight="20540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26160" windowHeight="19060"/>
   </bookViews>
   <sheets>
     <sheet name="NORMAL LIKELIHOOD" sheetId="8" r:id="rId1"/>
@@ -52,11 +52,9 @@
     <definedName name="solver_mip" localSheetId="0" hidden="1">5000</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">5000</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mod" localSheetId="0" hidden="1">5</definedName>
     <definedName name="solver_mod" localSheetId="1" hidden="1">5</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_mtr" localSheetId="0" hidden="1">0</definedName>
@@ -72,7 +70,7 @@
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'NORMAL LIKELIHOOD'!$K$2</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">'NORMAL LIKELIHOOD PLUS PRIOR'!$K$4</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">'NORMAL LIKELIHOOD PLUS PRIOR'!#REF!</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
@@ -84,7 +82,6 @@
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rtr" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rtr" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
@@ -106,11 +103,11 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_ver" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">6</definedName>
     <definedName name="solver_vir" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_vir" localSheetId="1" hidden="1">1</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -118,9 +115,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -209,12 +204,10 @@
       <b/>
       <sz val="12"/>
       <name val="Helvetica"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Helvetica"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -432,6 +425,2486 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Observed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NORMAL LIKELIHOOD'!$A$2:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.92</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.424</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.548</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.308</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53.586</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.502</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.969</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.798</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70.926</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>75.148</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.642</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64.289</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39.556</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.568</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.717</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71.112</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.91</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39.06</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28.839</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>38.223</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43.408</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>38.223</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>56.377</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53.502</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.38</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39.076</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.677</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.045</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25.381</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>57.065</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.933</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.469</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14.589</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42.909</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37.132</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>66.416</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>39.255</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27.388</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19.737</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22.853</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.65</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>41.276</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43.388</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40.512</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80.503</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>82.847</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>83.506</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>85.932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NORMAL LIKELIHOOD'!$B$2:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>18.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.16666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.83333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.16666666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>34.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>46.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>31.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>28.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.83333333333333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.16666666666667</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>31.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.16666666666667</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>23.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>21.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>34.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>29.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>23.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>31.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>31.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>27.3333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-68DE-784C-85CD-465C45DADCFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NORMAL LIKELIHOOD'!$A$2:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.92</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.424</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.548</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.308</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53.586</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.502</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.969</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.798</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70.926</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>75.148</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.642</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64.289</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39.556</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.568</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.717</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71.112</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.91</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39.06</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28.839</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>38.223</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43.408</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>38.223</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>56.377</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53.502</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.38</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39.076</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.677</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.045</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25.381</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>57.065</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.933</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.469</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14.589</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42.909</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37.132</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>66.416</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>39.255</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27.388</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19.737</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22.853</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.65</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>41.276</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43.388</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40.512</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80.503</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>82.847</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>83.506</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>85.932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NORMAL LIKELIHOOD'!$C$2:$C$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>0.989847715736041</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.989847715736041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.989847715736041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.957446808510638</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.915397631133672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.915397631133672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.948506694129763</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.948506694129763</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.989868287740628</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.989868287740628</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.989868287740628</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.908424908424908</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.845201238390093</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.845201238390093</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.910071942446043</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.980168173885451</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.982623201501355</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.982240534204731</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.981338409286008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.981309109939815</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.982446593761519</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.985250302368801</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.985900798014832</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98669292595944</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.955834290257044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.984445239465538</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.92156862745098</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.965532692241409</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.974719385175447</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.966179653679654</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.965177421039802</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.985937675779053</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.989795918367347</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.989795918367347</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.989795918367347</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.822695035460993</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.855282199710564</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.974398361495136</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.965324733867332</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.973837741673861</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.976962771839292</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.973837741673861</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.982262270074676</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.981309109939815</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.965963240299523</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.974408844303409</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.946458210633399</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.944582986977002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.96060044915488</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.982476123718566</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.961439093047468</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.935354580127998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.931455205977106</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.976694865878953</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.973069050953356</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.98494338713563</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.974525538148007</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.932885906040268</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.932885906040268</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.963487658828684</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.949333738663424</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.956242068874984</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.989827060020346</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.989827060020346</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.989827060020346</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.869281045751634</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.869281045751634</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.885844748858447</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.885844748858447</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.885844748858447</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.975772846206028</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.976952152668941</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.975315955766193</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.987578102679403</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.987929556894034</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.988024812588317</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.988362891588698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-68DE-784C-85CD-465C45DADCFF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2100458744"/>
+        <c:axId val="2100410632"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2100458744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0">
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                    <a:latin typeface="Helvetica"/>
+                  </a:rPr>
+                  <a:t>Light</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" baseline="0">
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2100410632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2100410632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0">
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                    <a:latin typeface="Helvetica"/>
+                  </a:rPr>
+                  <a:t>Growth Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2100458744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10.0"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" baseline="0">
+              <a:latin typeface="Helvetica"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Observed</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NORMAL LIKELIHOOD PLUS PRIOR'!$A$2:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.92</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.424</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.548</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.308</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53.586</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.502</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.969</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.798</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70.926</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>75.148</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.642</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64.289</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39.556</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.568</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.717</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71.112</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.91</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39.06</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28.839</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>38.223</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43.408</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>38.223</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>56.377</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53.502</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.38</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39.076</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.677</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.045</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25.381</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>57.065</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.933</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.469</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14.589</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42.909</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37.132</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>66.416</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>39.255</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27.388</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19.737</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22.853</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.65</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>41.276</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43.388</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40.512</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80.503</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>82.847</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>83.506</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>85.932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NORMAL LIKELIHOOD PLUS PRIOR'!$B$2:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>18.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.16666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.83333333333333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.16666666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>37.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>34.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>17.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>28.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>30.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>32.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>46.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>24.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>31.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>26.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>30.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>28.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.83333333333333</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>10.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.16666666666667</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>31.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.3333333333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>16.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.16666666666667</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>11.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>23.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>21.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>34.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>29.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.33333333333333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.66666666666667</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>16.8333333333333</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>23.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>31.6666666666667</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>31.1666666666667</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>27.3333333333333</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1C8E-E44E-BD00-B041A373E21B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NORMAL LIKELIHOOD PLUS PRIOR'!$A$2:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.82</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10.92</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.46</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>11.12</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.424</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>57.548</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.308</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53.586</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.502</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.969</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.798</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>70.926</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>75.148</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>22.642</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>64.289</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>29.013</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39.556</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29.568</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>28.717</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>71.112</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.91</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39.06</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>28.839</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>38.223</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43.408</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>38.223</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>56.377</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>53.502</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>29.38</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39.076</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>18.677</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.045</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>25.381</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>57.065</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25.933</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>15.469</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14.589</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42.909</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>37.132</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>66.416</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>39.255</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>14.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>27.388</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19.737</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>22.853</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>98.3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.65</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>41.276</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>43.388</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>40.512</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>80.503</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>82.847</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>83.506</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>85.932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NORMAL LIKELIHOOD PLUS PRIOR'!$C$2:$C$78</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="77"/>
+                <c:pt idx="0">
+                  <c:v>0.989847715736041</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.989847715736041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.989847715736041</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.957446808510638</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.915397631133672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.915397631133672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.948506694129763</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.948506694129763</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.989868287740628</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.989868287740628</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.989868287740628</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.908424908424908</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.845201238390093</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.845201238390093</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.910071942446043</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.980168173885451</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.982623201501355</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.982240534204731</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.981338409286008</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.981309109939815</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.982446593761519</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.985250302368801</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.985900798014832</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98669292595944</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.955834290257044</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.984445239465538</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.92156862745098</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.965532692241409</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.974719385175447</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.966179653679654</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.965177421039802</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.985937675779053</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.989795918367347</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.989795918367347</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.989795918367347</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.822695035460993</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.855282199710564</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.974398361495136</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.965324733867332</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.973837741673861</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.976962771839292</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.973837741673861</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.982262270074676</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.981309109939815</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.965963240299523</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.974408844303409</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.946458210633399</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.944582986977002</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.96060044915488</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.982476123718566</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.961439093047468</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.935354580127998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.931455205977106</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.976694865878953</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.973069050953356</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.98494338713563</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.974525538148007</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.932885906040268</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.932885906040268</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.963487658828684</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.949333738663424</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.956242068874984</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.989827060020346</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.989827060020346</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.989827060020346</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.869281045751634</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.869281045751634</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.885844748858447</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.885844748858447</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.885844748858447</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.975772846206028</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.976952152668941</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.975315955766193</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.987578102679403</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.987929556894034</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.988024812588317</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.988362891588698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1C8E-E44E-BD00-B041A373E21B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2135308696"/>
+        <c:axId val="2135316696"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2135308696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="120.0"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0">
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                    <a:latin typeface="Helvetica"/>
+                  </a:rPr>
+                  <a:t>Light</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" baseline="0">
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135316696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2135316696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0">
+                    <a:latin typeface="Helvetica"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="0" i="0">
+                    <a:latin typeface="Helvetica"/>
+                  </a:rPr>
+                  <a:t>Growth Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200">
+                <a:latin typeface="Helvetica"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135308696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10.0"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" baseline="0">
+              <a:latin typeface="Helvetica"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -760,17 +3233,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomLeft" activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.83203125" style="5" customWidth="1"/>
     <col min="8" max="25" width="22" style="5" customWidth="1"/>
     <col min="26" max="16384" width="8.83203125" style="5"/>
@@ -816,7 +3289,7 @@
         <v>18.1666666666667</v>
       </c>
       <c r="C2" s="8">
-        <f>alpha*(A2-c_)/(alpha/gamma+(A2-c_))</f>
+        <f t="shared" ref="C2:C33" si="0">alpha*(A2-c_)/(alpha/gamma+(A2-c_))</f>
         <v>0.98984771573604058</v>
       </c>
       <c r="D2" s="6">
@@ -824,11 +3297,11 @@
         <v>295.04310927305062</v>
       </c>
       <c r="E2" s="9">
-        <f>NORMDIST(B2,C2,$I$5,FALSE)</f>
+        <f t="shared" ref="E2:E33" si="1">NORMDIST(B2,C2,$I$5,FALSE)</f>
         <v>1.9183629804393508E-17</v>
       </c>
       <c r="F2" s="9">
-        <f t="shared" ref="F2:F65" si="0">LN(E2)</f>
+        <f t="shared" ref="F2:F65" si="2">LN(E2)</f>
         <v>-38.492474372895948</v>
       </c>
       <c r="H2" s="10" t="s">
@@ -853,19 +3326,19 @@
         <v>26</v>
       </c>
       <c r="C3" s="8">
-        <f t="shared" ref="C3:C33" si="1">alpha*(A3-c_)/(alpha/gamma+(A3-c_))</f>
+        <f t="shared" si="0"/>
         <v>0.98984771573604058</v>
       </c>
       <c r="D3" s="6">
-        <f t="shared" ref="D3:D66" si="2">(C3-B3)^2</f>
+        <f t="shared" ref="D3:D66" si="3">(C3-B3)^2</f>
         <v>625.50771728207371</v>
       </c>
       <c r="E3" s="9">
-        <f>NORMDIST(B3,C3,$I$5,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>2.2032375247273666E-35</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-79.800550374023828</v>
       </c>
       <c r="H3" s="10" t="s">
@@ -883,19 +3356,19 @@
         <v>25.6666666666667</v>
       </c>
       <c r="C4" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.98984771573604058</v>
       </c>
       <c r="D4" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>608.94539353701055</v>
       </c>
       <c r="E4" s="9">
-        <f>NORMDIST(B4,C4,$I$5,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1.7465340058070776E-34</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-77.730259905890932</v>
       </c>
       <c r="H4" s="10" t="s">
@@ -913,19 +3386,19 @@
         <v>6.1666666666666696</v>
       </c>
       <c r="C5" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.95744680851063835</v>
       </c>
       <c r="D5" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27.135971530607147</v>
       </c>
       <c r="E5" s="9">
-        <f t="shared" ref="E5:E33" si="3">NORMDIST(B5,C5,$I$5,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>6.7104977186713093E-3</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.0040821550905115</v>
       </c>
       <c r="H5" s="10" t="s">
@@ -944,19 +3417,19 @@
         <v>10</v>
       </c>
       <c r="C6" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.91539763113367179</v>
       </c>
       <c r="D6" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>82.530000200411692</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>6.6006941592661427E-6</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-11.928335738816079</v>
       </c>
       <c r="H6" s="12"/>
@@ -970,19 +3443,19 @@
         <v>11.1666666666667</v>
       </c>
       <c r="C7" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.91539763113367179</v>
       </c>
       <c r="D7" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>105.08851683887825</v>
       </c>
       <c r="E7" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.9351355649131444E-7</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-14.748150318624399</v>
       </c>
     </row>
@@ -994,19 +3467,19 @@
         <v>7.3333333333333304</v>
       </c>
       <c r="C8" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.94850669412976318</v>
       </c>
       <c r="D8" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40.766011212683516</v>
       </c>
       <c r="E8" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.2213028070845464E-3</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-6.7078371153500571</v>
       </c>
     </row>
@@ -1018,19 +3491,19 @@
         <v>15.6666666666667</v>
       </c>
       <c r="C9" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.94850669412976318</v>
       </c>
       <c r="D9" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>216.62423297718846</v>
       </c>
       <c r="E9" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.4676993862976904E-13</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-28.690114835913175</v>
       </c>
     </row>
@@ -1042,19 +3515,19 @@
         <v>44.1666666666667</v>
       </c>
       <c r="C10" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.98986828774062818</v>
       </c>
       <c r="D10" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1864.235918254433</v>
       </c>
       <c r="E10" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.2487012233331948E-102</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-234.64157549556876</v>
       </c>
     </row>
@@ -1066,19 +3539,19 @@
         <v>39.6666666666667</v>
       </c>
       <c r="C11" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.98986828774062818</v>
       </c>
       <c r="D11" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1495.8947328440984</v>
       </c>
       <c r="E11" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.2374469009722048E-82</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-188.59892731927692</v>
       </c>
     </row>
@@ -1090,19 +3563,19 @@
         <v>30</v>
       </c>
       <c r="C12" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.98986828774062818</v>
       </c>
       <c r="D12" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>841.58774196263687</v>
       </c>
       <c r="E12" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>4.0998316489106467E-47</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-106.81055345909422</v>
       </c>
     </row>
@@ -1114,19 +3587,19 @@
         <v>4.8333333333333304</v>
       </c>
       <c r="C13" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.90842490842490842</v>
       </c>
       <c r="D13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.40490614391711</v>
       </c>
       <c r="E13" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.9080164144342557E-2</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.5376989817542568</v>
       </c>
     </row>
@@ -1138,19 +3611,19 @@
         <v>4.1666666666666696</v>
       </c>
       <c r="C14" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.84520123839009287</v>
       </c>
       <c r="D14" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>11.032132591236504</v>
       </c>
       <c r="E14" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.0232036041530578E-2</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.9911022876691811</v>
       </c>
     </row>
@@ -1162,19 +3635,19 @@
         <v>5.3333333333333304</v>
       </c>
       <c r="C15" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.84520123839009287</v>
       </c>
       <c r="D15" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.143329701659574</v>
       </c>
       <c r="E15" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.6082847839401501E-2</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-4.1300019264720653</v>
       </c>
     </row>
@@ -1186,19 +3659,19 @@
         <v>4.6666666666666696</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.91007194244604317</v>
       </c>
       <c r="D16" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.112003922042243</v>
       </c>
       <c r="E16" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.4180970632634047E-2</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.3760862040198982</v>
       </c>
     </row>
@@ -1210,19 +3683,19 @@
         <v>28.1666666666667</v>
       </c>
       <c r="C17" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.98016817388545141</v>
       </c>
       <c r="D17" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>739.10570029799703</v>
       </c>
       <c r="E17" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.5003382185750633E-41</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-94.000298251014243</v>
       </c>
     </row>
@@ -1234,19 +3707,19 @@
         <v>22.6666666666667</v>
       </c>
       <c r="C18" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.9826232015013554</v>
       </c>
       <c r="D18" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>470.19774099917993</v>
       </c>
       <c r="E18" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.9476380370231736E-27</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-60.386803338662112</v>
       </c>
     </row>
@@ -1258,19 +3731,19 @@
         <v>36.3333333333333</v>
       </c>
       <c r="C19" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.98224053420473112</v>
       </c>
       <c r="D19" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1249.6997620925995</v>
       </c>
       <c r="E19" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>2.8685751447547183E-69</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-157.82455597533956</v>
       </c>
     </row>
@@ -1282,19 +3755,19 @@
         <v>37.3333333333333</v>
       </c>
       <c r="C20" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.98133840928600757</v>
       </c>
       <c r="D20" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1321.46753495796</v>
       </c>
       <c r="E20" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.6443725293384884E-73</v>
       </c>
       <c r="F20" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-166.79552758350962</v>
       </c>
     </row>
@@ -1306,19 +3779,19 @@
         <v>35.3333333333333</v>
       </c>
       <c r="C21" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.98130910993981535</v>
       </c>
       <c r="D21" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1180.0615682446128</v>
       </c>
       <c r="E21" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.7302212668971819E-65</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-149.11978174434122</v>
       </c>
     </row>
@@ -1330,19 +3803,19 @@
         <v>37.25</v>
       </c>
       <c r="C22" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.98244659376151944</v>
       </c>
       <c r="D22" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1315.3354300743601</v>
       </c>
       <c r="E22" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7.8435953162934987E-73</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-166.02901447305965</v>
       </c>
     </row>
@@ -1354,19 +3827,19 @@
         <v>33.8333333333333</v>
       </c>
       <c r="C23" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.9852503023688014</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1078.9965588091377</v>
       </c>
       <c r="E23" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.3039403931997977E-60</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-136.48665556490684</v>
       </c>
     </row>
@@ -1378,19 +3851,19 @@
         <v>32</v>
       </c>
       <c r="C24" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.98590079801483232</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>961.87434931057703</v>
       </c>
       <c r="E24" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.2100123317645591E-53</v>
       </c>
       <c r="F24" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-121.84637937758674</v>
       </c>
     </row>
@@ -1402,19 +3875,19 @@
         <v>34.1666666666667</v>
       </c>
       <c r="C25" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.98669292595944003</v>
       </c>
       <c r="D25" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1100.9106574340235</v>
       </c>
       <c r="E25" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.4273000014929846E-61</v>
       </c>
       <c r="F25" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-139.22591789301757</v>
       </c>
     </row>
@@ -1426,19 +3899,19 @@
         <v>12.5</v>
       </c>
       <c r="C26" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.95583429025704447</v>
       </c>
       <c r="D26" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>133.26776193400508</v>
       </c>
       <c r="E26" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.1619792352541241E-8</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-18.270555955515253</v>
       </c>
     </row>
@@ -1450,19 +3923,19 @@
         <v>26.1666666666667</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.98444523946553841</v>
       </c>
       <c r="D27" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>634.14427600858926</v>
       </c>
       <c r="E27" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>7.4853152379802842E-36</v>
       </c>
       <c r="F27" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-80.880120214838271</v>
       </c>
     </row>
@@ -1474,19 +3947,19 @@
         <v>11.5</v>
       </c>
       <c r="C28" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.92156862745098034</v>
       </c>
       <c r="D28" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>111.90321030372932</v>
       </c>
       <c r="E28" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.6788493519896891E-7</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-15.599987001730783</v>
       </c>
     </row>
@@ -1498,19 +3971,19 @@
         <v>7.5</v>
       </c>
       <c r="C29" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.96553269224140903</v>
       </c>
       <c r="D29" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>42.699262996165814</v>
       </c>
       <c r="E29" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9.5912074070902997E-4</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-6.9494935882853444</v>
       </c>
     </row>
@@ -1522,19 +3995,19 @@
         <v>25</v>
       </c>
       <c r="C30" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.97471938517544743</v>
       </c>
       <c r="D30" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>577.21410862106438</v>
       </c>
       <c r="E30" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>9.2207721136281516E-33</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-73.763849291397662</v>
       </c>
     </row>
@@ -1546,19 +4019,19 @@
         <v>14.3333333333333</v>
       </c>
       <c r="C31" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.96617965367965364</v>
       </c>
       <c r="D31" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>178.68079749547803</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>3.9798758376331217E-11</v>
       </c>
       <c r="F31" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-23.947185400699372</v>
       </c>
     </row>
@@ -1570,19 +4043,19 @@
         <v>17.1666666666667</v>
       </c>
       <c r="C32" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.9651774210398022</v>
       </c>
       <c r="D32" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>262.48825377616407</v>
       </c>
       <c r="E32" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>1.1226129499387994E-15</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-34.42311743578513</v>
       </c>
     </row>
@@ -1594,19 +4067,19 @@
         <v>28.3333333333333</v>
       </c>
       <c r="C33" s="8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0.98593767577905278</v>
       </c>
       <c r="D33" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>747.88004925081691</v>
       </c>
       <c r="E33" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>5.0102310692159097E-42</v>
       </c>
       <c r="F33" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-95.097091870116728</v>
       </c>
     </row>
@@ -1622,7 +4095,7 @@
         <v>0.98979591836734693</v>
       </c>
       <c r="D34" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>136.34931047248907</v>
       </c>
       <c r="E34" s="9">
@@ -1630,7 +4103,7 @@
         <v>7.9051647692623455E-9</v>
       </c>
       <c r="F34" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-18.655749522825751</v>
       </c>
     </row>
@@ -1646,7 +4119,7 @@
         <v>0.98979591836734693</v>
       </c>
       <c r="D35" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>861.0431880235069</v>
       </c>
       <c r="E35" s="9">
@@ -1654,7 +4127,7 @@
         <v>3.6023998451183727E-48</v>
       </c>
       <c r="F35" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-109.24248421670298</v>
       </c>
     </row>
@@ -1670,7 +4143,7 @@
         <v>0.98979591836734693</v>
       </c>
       <c r="D36" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>576.48990004164932</v>
       </c>
       <c r="E36" s="9">
@@ -1678,7 +4151,7 @@
         <v>1.0094440732988069E-32</v>
       </c>
       <c r="F36" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-73.673323218970779</v>
       </c>
     </row>
@@ -1694,7 +4167,7 @@
         <v>0.82269503546099287</v>
       </c>
       <c r="D37" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.4002313766913264</v>
       </c>
       <c r="E37" s="9">
@@ -1702,7 +4175,7 @@
         <v>0.13040443284581085</v>
       </c>
       <c r="F37" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.0371146358510339</v>
       </c>
     </row>
@@ -1718,7 +4191,7 @@
         <v>0.85528219971056441</v>
       </c>
       <c r="D38" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.9945322431677912</v>
       </c>
       <c r="E38" s="9">
@@ -1726,7 +4199,7 @@
         <v>8.3208793622610189E-2</v>
       </c>
       <c r="F38" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.4864022441605917</v>
       </c>
     </row>
@@ -1742,7 +4215,7 @@
         <v>0.9743983614951357</v>
       </c>
       <c r="D39" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>330.95862608734984</v>
       </c>
       <c r="E39" s="9">
@@ -1750,7 +4223,7 @@
         <v>2.1537333803152249E-19</v>
       </c>
       <c r="F39" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-42.981913974683351</v>
       </c>
     </row>
@@ -1766,7 +4239,7 @@
         <v>0.96532473386733242</v>
       </c>
       <c r="D40" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>882.16971260906598</v>
       </c>
       <c r="E40" s="9">
@@ -1774,7 +4247,7 @@
         <v>2.568622509802687E-49</v>
       </c>
       <c r="F40" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-111.88329978989786</v>
       </c>
     </row>
@@ -1790,7 +4263,7 @@
         <v>0.97383774167386128</v>
       </c>
       <c r="D41" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>972.99257634386981</v>
       </c>
       <c r="E41" s="9">
@@ -1798,7 +4271,7 @@
         <v>3.0145099056114221E-54</v>
       </c>
       <c r="F41" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-123.23615775674834</v>
       </c>
     </row>
@@ -1814,7 +4287,7 @@
         <v>0.97696277183929225</v>
       </c>
       <c r="D42" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2087.549041997007</v>
       </c>
       <c r="E42" s="9">
@@ -1822,7 +4295,7 @@
         <v>9.4080878689523442E-115</v>
       </c>
       <c r="F42" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-262.55571596339047</v>
       </c>
     </row>
@@ -1838,7 +4311,7 @@
         <v>0.97383774167386128</v>
       </c>
       <c r="D43" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>569.27552988841614</v>
       </c>
       <c r="E43" s="9">
@@ -1846,7 +4319,7 @@
         <v>2.4872956253025018E-32</v>
       </c>
       <c r="F43" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-72.771526949816632</v>
       </c>
     </row>
@@ -1862,7 +4335,7 @@
         <v>0.98226227007467581</v>
       </c>
       <c r="D44" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>941.53267317359598</v>
       </c>
       <c r="E44" s="9">
@@ -1870,7 +4343,7 @@
         <v>1.5384185531140739E-52</v>
       </c>
       <c r="F44" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-119.30366986046411</v>
       </c>
     </row>
@@ -1886,7 +4359,7 @@
         <v>0.98130910993981535</v>
       </c>
       <c r="D45" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>668.32715644692348</v>
       </c>
       <c r="E45" s="9">
@@ -1894,7 +4367,7 @@
         <v>1.0435915436069596E-37</v>
       </c>
       <c r="F45" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-85.152980269630049</v>
       </c>
     </row>
@@ -1910,7 +4383,7 @@
         <v>0.96596324029952352</v>
       </c>
       <c r="D46" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>823.73037716828458</v>
       </c>
       <c r="E46" s="9">
@@ -1918,7 +4391,7 @@
         <v>3.8210735528989733E-46</v>
       </c>
       <c r="F46" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-104.57838285980019</v>
       </c>
     </row>
@@ -1934,7 +4407,7 @@
         <v>0.97440884430340879</v>
       </c>
       <c r="D47" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>891.55537164158898</v>
       </c>
       <c r="E47" s="9">
@@ -1942,7 +4415,7 @@
         <v>7.9466263549977518E-50</v>
       </c>
       <c r="F47" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-113.05650716896324</v>
       </c>
     </row>
@@ -1958,7 +4431,7 @@
         <v>0.94645821063339941</v>
       </c>
       <c r="D48" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>768.40995684594009</v>
       </c>
       <c r="E48" s="9">
@@ -1966,7 +4439,7 @@
         <v>3.8490589091464857E-43</v>
       </c>
       <c r="F48" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-97.663330319507125</v>
       </c>
     </row>
@@ -1982,7 +4455,7 @@
         <v>0.94458298697700194</v>
       </c>
       <c r="D49" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>369.488500988993</v>
       </c>
       <c r="E49" s="9">
@@ -1990,7 +4463,7 @@
         <v>1.7439255153496351E-21</v>
       </c>
       <c r="F49" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-47.798148337388746</v>
       </c>
     </row>
@@ -2006,7 +4479,7 @@
         <v>0.96060044915487963</v>
       </c>
       <c r="D50" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.734926808582145</v>
       </c>
       <c r="E50" s="9">
@@ -2014,7 +4487,7 @@
         <v>3.583065149664625E-2</v>
       </c>
       <c r="F50" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-3.3289515648373862</v>
       </c>
     </row>
@@ -2030,7 +4503,7 @@
         <v>0.98247612371856652</v>
       </c>
       <c r="D51" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>601.1089770240302</v>
       </c>
       <c r="E51" s="9">
@@ -2038,7 +4511,7 @@
         <v>4.6514794022857922E-34</v>
       </c>
       <c r="F51" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-76.750707841768389</v>
       </c>
     </row>
@@ -2054,7 +4527,7 @@
         <v>0.96143909304746844</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>34.479141969102272</v>
       </c>
       <c r="E52" s="9">
@@ -2062,7 +4535,7 @@
         <v>2.6798928679540187E-3</v>
       </c>
       <c r="F52" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-5.9219784599024017</v>
       </c>
     </row>
@@ -2078,7 +4551,7 @@
         <v>0.93535458012799788</v>
       </c>
       <c r="D53" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>91.482442007878475</v>
       </c>
       <c r="E53" s="9">
@@ -2086,7 +4559,7 @@
         <v>2.1557088306654981E-6</v>
       </c>
       <c r="F53" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-13.047390964749427</v>
       </c>
     </row>
@@ -2102,7 +4575,7 @@
         <v>0.93145520597710607</v>
       </c>
       <c r="D54" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.466593195377099</v>
       </c>
       <c r="E54" s="9">
@@ -2110,7 +4583,7 @@
         <v>5.3911586396888381E-2</v>
       </c>
       <c r="F54" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2.9204098631867552</v>
       </c>
     </row>
@@ -2126,7 +4599,7 @@
         <v>0.97669486587895316</v>
       </c>
       <c r="D55" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>642.9591143691855</v>
       </c>
       <c r="E55" s="9">
@@ -2134,7 +4607,7 @@
         <v>2.4870277875344942E-36</v>
       </c>
       <c r="F55" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-81.981975009912802</v>
       </c>
     </row>
@@ -2150,7 +4623,7 @@
         <v>0.97306905095335561</v>
       </c>
       <c r="D56" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>921.74564729595534</v>
       </c>
       <c r="E56" s="9">
@@ -2158,7 +4631,7 @@
         <v>1.8249418379995021E-51</v>
       </c>
       <c r="F56" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-116.83029162575903</v>
       </c>
     </row>
@@ -2174,7 +4647,7 @@
         <v>0.98494338713563001</v>
       </c>
       <c r="D57" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>156.62664202320022</v>
       </c>
       <c r="E57" s="9">
@@ -2182,7 +4655,7 @@
         <v>6.2678598414528727E-10</v>
       </c>
       <c r="F57" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-21.190415966664645</v>
       </c>
     </row>
@@ -2198,7 +4671,7 @@
         <v>0.97452553814800658</v>
       </c>
       <c r="D58" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>178.45774570870338</v>
       </c>
       <c r="E58" s="9">
@@ -2206,7 +4679,7 @@
         <v>4.0924020484894477E-11</v>
       </c>
       <c r="F58" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-23.919303927352541</v>
       </c>
     </row>
@@ -2222,7 +4695,7 @@
         <v>0.93288590604026844</v>
       </c>
       <c r="D59" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>252.82422838810956</v>
       </c>
       <c r="E59" s="9">
@@ -2230,7 +4703,7 @@
         <v>3.7571554154287488E-15</v>
       </c>
       <c r="F59" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-33.215114262278313</v>
       </c>
     </row>
@@ -2246,7 +4719,7 @@
         <v>0.93288590604026844</v>
       </c>
       <c r="D60" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52.327584092808678</v>
       </c>
       <c r="E60" s="9">
@@ -2254,7 +4727,7 @@
         <v>2.8786074318755785E-4</v>
       </c>
       <c r="F60" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-8.1530337253657024</v>
       </c>
     </row>
@@ -2270,7 +4743,7 @@
         <v>0.96348765882868415</v>
       </c>
       <c r="D61" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>114.55804087382435</v>
       </c>
       <c r="E61" s="9">
@@ -2278,7 +4751,7 @@
         <v>1.2047292199613166E-7</v>
       </c>
       <c r="F61" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-15.931840822992662</v>
       </c>
     </row>
@@ -2294,7 +4767,7 @@
         <v>0.94933373866342408</v>
       </c>
       <c r="D62" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>493.60988243373868</v>
       </c>
       <c r="E62" s="9">
@@ -2302,7 +4775,7 @@
         <v>3.1869412017186012E-28</v>
       </c>
       <c r="F62" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-63.313321017981956</v>
       </c>
     </row>
@@ -2318,7 +4791,7 @@
         <v>0.95624206887498364</v>
       </c>
       <c r="D63" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>408.46126242302438</v>
       </c>
       <c r="E63" s="9">
@@ -2326,7 +4799,7 @@
         <v>1.3360448196853052E-23</v>
       </c>
       <c r="F63" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-52.669743516642669</v>
       </c>
     </row>
@@ -2342,7 +4815,7 @@
         <v>0.98982706002034593</v>
       </c>
       <c r="D64" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1296.7325551672429</v>
       </c>
       <c r="E64" s="9">
@@ -2350,7 +4823,7 @@
         <v>8.0242771155642583E-72</v>
       </c>
       <c r="F64" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-163.70365510967</v>
       </c>
     </row>
@@ -2366,7 +4839,7 @@
         <v>0.98982706002034593</v>
       </c>
       <c r="D65" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1100.7026862851383</v>
       </c>
       <c r="E65" s="9">
@@ -2374,7 +4847,7 @@
         <v>3.5175656485011875E-61</v>
       </c>
       <c r="F65" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-139.19992149940691</v>
       </c>
     </row>
@@ -2390,7 +4863,7 @@
         <v>0.98982706002034593</v>
       </c>
       <c r="D66" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>793.93429021867462</v>
       </c>
       <c r="E66" s="9">
@@ -2693,6 +5166,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2707,17 +5181,14 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="6.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" style="5" customWidth="1"/>
+    <col min="2" max="3" width="17.33203125" style="5" customWidth="1"/>
+    <col min="4" max="6" width="15.83203125" style="5" customWidth="1"/>
     <col min="7" max="7" width="3.83203125" style="5" customWidth="1"/>
     <col min="8" max="27" width="22" style="5" customWidth="1"/>
     <col min="28" max="16384" width="8.83203125" style="5"/>
@@ -4664,6 +7135,7 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
